--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A09F90-A3E0-41BA-8601-7CFB1C3500CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655FB90-358A-4BFA-9BDD-1F7F7CE4B612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>magneticTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +223,22 @@
   </si>
   <si>
     <t>8#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragGround</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragRB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,8 +601,8 @@
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,22 +638,31 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -673,31 +694,31 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -738,12 +759,21 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
       </c>
       <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -758,10 +788,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
       <c r="G4">
         <v>10000</v>
@@ -791,6 +821,15 @@
         <v>1</v>
       </c>
       <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0.3</v>
+      </c>
+      <c r="S4">
         <v>0.5</v>
       </c>
     </row>

--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655FB90-358A-4BFA-9BDD-1F7F7CE4B612}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03439481-B1C7-44FC-AD4A-DA3E57E33C4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁场强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磁场系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sorth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +231,26 @@
   </si>
   <si>
     <t>dragRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排斥强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,7 +618,7 @@
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,16 +668,19 @@
         <v>30</v>
       </c>
       <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
+      <c r="T1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -697,31 +712,34 @@
         <v>31</v>
       </c>
       <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
       <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
-        <v>40</v>
+      <c r="T2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -759,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -776,8 +794,11 @@
       <c r="S3" t="s">
         <v>21</v>
       </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -788,10 +809,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>10000</v>
@@ -831,6 +852,9 @@
       </c>
       <c r="S4">
         <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03439481-B1C7-44FC-AD4A-DA3E57E33C4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B01330-60DB-453C-B659-5025CB9D9A52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,46 @@
   </si>
   <si>
     <t>North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edgeBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界可返回次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backVelcity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界返回速度（不利用磁场返回）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edgePolarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界磁极（利用磁场返回时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sourth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,8 +349,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -591,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,9 +659,12 @@
     <col min="17" max="17" width="12.875" customWidth="1"/>
     <col min="18" max="18" width="14.75" customWidth="1"/>
     <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="23.5" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +725,17 @@
       <c r="T1" t="s">
         <v>47</v>
       </c>
+      <c r="U1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -738,8 +793,17 @@
       <c r="T2" t="s">
         <v>46</v>
       </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -797,8 +861,17 @@
       <c r="T3" t="s">
         <v>45</v>
       </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -855,6 +928,15 @@
       </c>
       <c r="T4">
         <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B01330-60DB-453C-B659-5025CB9D9A52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0659EF93-ABA0-4B82-8C63-987F1F228AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>edgeBack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>边界可返回次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +287,10 @@
   </si>
   <si>
     <t>Sourth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edgeBackNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,13 +726,13 @@
         <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="57" x14ac:dyDescent="0.2">
@@ -794,13 +794,13 @@
         <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -862,13 +862,13 @@
         <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -933,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0659EF93-ABA0-4B82-8C63-987F1F228AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABA93D-FF3E-4747-B403-6C7ADB85DBBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,7 +888,7 @@
         <v>48</v>
       </c>
       <c r="G4">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>

--- a/Doc/配置表/PlayerConfig.xlsx
+++ b/Doc/配置表/PlayerConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABA93D-FF3E-4747-B403-6C7ADB85DBBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD8D04-4A49-42D4-9ACF-EC76C9FFF19B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
